--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5591,6 +5591,1366 @@
       </c>
       <c r="E301" t="inlineStr"/>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry and fishing</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="n">
+        <v>6906</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Electricity, gas, water and waste services</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="n">
+        <v>77161</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Wholesale trade</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="n">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Retail trade</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="n">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Accommodation and food services</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="n">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Transport, postal and warehousing</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="n">
+        <v>47796</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Information media and telecommunications</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="n">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Finance and insurance services</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="n">
+        <v>40749</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Rental, hiring and real estate services</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr"/>
+      <c r="E310" t="n">
+        <v>26891.5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Professional, scientific and technical services</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="n">
+        <v>40862</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Administrative and support services</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="n">
+        <v>11453</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Public administration and safety</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="n">
+        <v>62292</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Education and training</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="n">
+        <v>29806</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Health care and social assistance</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="n">
+        <v>37810</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Arts and recreation services</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="n">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="n">
+        <v>20873</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry and fishing</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr"/>
+      <c r="E318" t="n">
+        <v>7206.5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Electricity, gas, water and waste services</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="n">
+        <v>74537</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Wholesale trade</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="n">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Retail trade</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="n">
+        <v>18209</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Accommodation and food services</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Transport, postal and warehousing</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="n">
+        <v>47631.5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Information media and telecommunications</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="n">
+        <v>39364</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Finance and insurance services</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="n">
+        <v>40941</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Rental, hiring and real estate services</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Professional, scientific and technical services</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="n">
+        <v>40337</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Administrative and support services</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="n">
+        <v>11411</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Public administration and safety</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="n">
+        <v>57947</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Education and training</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
+      <c r="E330" t="n">
+        <v>31565</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Health care and social assistance</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="n">
+        <v>38477</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Arts and recreation services</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="n">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="n">
+        <v>21522</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry and fishing</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="n">
+        <v>7393</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Electricity, gas, water and waste services</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="n">
+        <v>79603</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Wholesale trade</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="n">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Retail trade</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="n">
+        <v>18612</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Accommodation and food services</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="n">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Transport, postal and warehousing</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="n">
+        <v>47658</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Information media and telecommunications</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="n">
+        <v>42699.5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Finance and insurance services</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="n">
+        <v>41650</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Rental, hiring and real estate services</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="n">
+        <v>28357</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Professional, scientific and technical services</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="n">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Administrative and support services</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="n">
+        <v>12304</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Public administration and safety</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="n">
+        <v>63697</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Education and training</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="n">
+        <v>32419</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Health care and social assistance</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="n">
+        <v>38514</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Arts and recreation services</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="n">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="n">
+        <v>21986</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry and fishing</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="n">
+        <v>8261</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Electricity, gas, water and waste services</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="n">
+        <v>78650</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Wholesale trade</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="n">
+        <v>46670</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Retail trade</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="n">
+        <v>19481.5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Accommodation and food services</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="n">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Transport, postal and warehousing</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="n">
+        <v>50140</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Information media and telecommunications</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="n">
+        <v>39681</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Finance and insurance services</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="n">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Rental, hiring and real estate services</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="n">
+        <v>29805</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Professional, scientific and technical services</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="n">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Administrative and support services</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="n">
+        <v>13078</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Public administration and safety</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="n">
+        <v>60622</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Education and training</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="n">
+        <v>31107</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Health care and social assistance</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="n">
+        <v>39585</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Arts and recreation services</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="n">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="n">
+        <v>23203</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry and fishing</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="n">
+        <v>9332.5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Electricity, gas, water and waste services</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="n">
+        <v>81732</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Wholesale trade</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="n">
+        <v>49498</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Retail trade</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="n">
+        <v>21006</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Accommodation and food services</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="n">
+        <v>8645</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Transport, postal and warehousing</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="n">
+        <v>51330</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Information media and telecommunications</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="n">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Finance and insurance services</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
+      <c r="E373" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Rental, hiring and real estate services</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="n">
+        <v>33517</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Professional, scientific and technical services</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
+      <c r="E375" t="n">
+        <v>50015</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Administrative and support services</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
+      <c r="E376" t="n">
+        <v>14112</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Public administration and safety</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr"/>
+      <c r="E377" t="n">
+        <v>65888</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Education and training</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr"/>
+      <c r="E378" t="n">
+        <v>36286</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Health care and social assistance</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="n">
+        <v>39049</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Arts and recreation services</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr"/>
+      <c r="E380" t="n">
+        <v>12326</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
+      <c r="E381" t="n">
+        <v>25756</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Sponosored_visas</t>
+          <t>Sponsored_visas</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -4548,10 +4548,8 @@
           <t>Not Specified</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
+      <c r="D241" t="n">
+        <v>5</v>
       </c>
       <c r="E241" t="inlineStr"/>
     </row>
@@ -5242,10 +5240,8 @@
           <t>Not Specified</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
+      <c r="D281" t="n">
+        <v>5</v>
       </c>
       <c r="E281" t="inlineStr"/>
     </row>
@@ -5584,10 +5580,8 @@
           <t>Not Specified</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
+      <c r="D301" t="n">
+        <v>5</v>
       </c>
       <c r="E301" t="inlineStr"/>
     </row>

--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -940,7 +940,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -957,7 +957,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -974,7 +974,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -3524,13 +3524,15 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>4473</v>
       </c>
-      <c r="E182" t="inlineStr"/>
+      <c r="E182" t="n">
+        <v>7293</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3541,13 +3543,15 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D183" t="n">
         <v>128</v>
       </c>
-      <c r="E183" t="inlineStr"/>
+      <c r="E183" t="n">
+        <v>11453</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3558,13 +3562,15 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>537</v>
       </c>
-      <c r="E184" t="inlineStr"/>
+      <c r="E184" t="n">
+        <v>6906</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3575,13 +3581,15 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>212</v>
       </c>
-      <c r="E185" t="inlineStr"/>
+      <c r="E185" t="n">
+        <v>8847</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3592,7 +3600,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3611,13 +3619,15 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>1296</v>
       </c>
-      <c r="E187" t="inlineStr"/>
+      <c r="E187" t="n">
+        <v>29806</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3628,13 +3638,15 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D188" t="n">
         <v>297</v>
       </c>
-      <c r="E188" t="inlineStr"/>
+      <c r="E188" t="n">
+        <v>77161</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3645,7 +3657,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3662,13 +3674,15 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D190" t="n">
         <v>1610</v>
       </c>
-      <c r="E190" t="inlineStr"/>
+      <c r="E190" t="n">
+        <v>37810</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3679,13 +3693,15 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D191" t="n">
         <v>1244</v>
       </c>
-      <c r="E191" t="inlineStr"/>
+      <c r="E191" t="n">
+        <v>37000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3696,7 +3712,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3715,7 +3731,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3734,13 +3750,15 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D194" t="n">
         <v>3509</v>
       </c>
-      <c r="E194" t="inlineStr"/>
+      <c r="E194" t="n">
+        <v>20873</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -3751,13 +3769,15 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D195" t="n">
         <v>2013</v>
       </c>
-      <c r="E195" t="inlineStr"/>
+      <c r="E195" t="n">
+        <v>40862</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -3768,13 +3788,15 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>32</v>
       </c>
-      <c r="E196" t="inlineStr"/>
+      <c r="E196" t="n">
+        <v>62292</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -3785,13 +3807,15 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>217</v>
       </c>
-      <c r="E197" t="inlineStr"/>
+      <c r="E197" t="n">
+        <v>26891.5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -3802,13 +3826,15 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D198" t="n">
         <v>1503</v>
       </c>
-      <c r="E198" t="inlineStr"/>
+      <c r="E198" t="n">
+        <v>17950</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -3819,7 +3845,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3836,13 +3862,15 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D200" t="n">
         <v>525</v>
       </c>
-      <c r="E200" t="inlineStr"/>
+      <c r="E200" t="n">
+        <v>43383</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -3853,7 +3881,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -3870,13 +3898,15 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D202" t="n">
         <v>2381</v>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="n">
+        <v>7500</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -3887,13 +3917,15 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D203" t="n">
         <v>130</v>
       </c>
-      <c r="E203" t="inlineStr"/>
+      <c r="E203" t="n">
+        <v>11411</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -3904,13 +3936,15 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D204" t="n">
         <v>442</v>
       </c>
-      <c r="E204" t="inlineStr"/>
+      <c r="E204" t="n">
+        <v>7206.5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -3921,13 +3955,15 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D205" t="n">
         <v>169</v>
       </c>
-      <c r="E205" t="inlineStr"/>
+      <c r="E205" t="n">
+        <v>9148</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -3938,7 +3974,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -3957,13 +3993,15 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D207" t="n">
         <v>1114</v>
       </c>
-      <c r="E207" t="inlineStr"/>
+      <c r="E207" t="n">
+        <v>31565</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -3974,13 +4012,15 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D208" t="n">
         <v>206</v>
       </c>
-      <c r="E208" t="inlineStr"/>
+      <c r="E208" t="n">
+        <v>74537</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -3991,7 +4031,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4008,13 +4048,15 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D210" t="n">
         <v>1318</v>
       </c>
-      <c r="E210" t="inlineStr"/>
+      <c r="E210" t="n">
+        <v>38477</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4025,13 +4067,15 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D211" t="n">
         <v>1294</v>
       </c>
-      <c r="E211" t="inlineStr"/>
+      <c r="E211" t="n">
+        <v>39364</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4042,7 +4086,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4061,7 +4105,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4080,13 +4124,15 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D214" t="n">
         <v>2241</v>
       </c>
-      <c r="E214" t="inlineStr"/>
+      <c r="E214" t="n">
+        <v>21522</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4097,13 +4143,15 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>2141</v>
       </c>
-      <c r="E215" t="inlineStr"/>
+      <c r="E215" t="n">
+        <v>40337</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4114,13 +4162,15 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D216" t="n">
         <v>45</v>
       </c>
-      <c r="E216" t="inlineStr"/>
+      <c r="E216" t="n">
+        <v>57947</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4131,13 +4181,15 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D217" t="n">
         <v>143</v>
       </c>
-      <c r="E217" t="inlineStr"/>
+      <c r="E217" t="n">
+        <v>27000</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4148,13 +4200,15 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D218" t="n">
         <v>856</v>
       </c>
-      <c r="E218" t="inlineStr"/>
+      <c r="E218" t="n">
+        <v>18209</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4165,7 +4219,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4182,13 +4236,15 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D220" t="n">
         <v>320</v>
       </c>
-      <c r="E220" t="inlineStr"/>
+      <c r="E220" t="n">
+        <v>44138</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4199,7 +4255,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4216,13 +4272,15 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D222" t="n">
         <v>3824</v>
       </c>
-      <c r="E222" t="inlineStr"/>
+      <c r="E222" t="n">
+        <v>7680</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4233,13 +4291,15 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D223" t="n">
         <v>184</v>
       </c>
-      <c r="E223" t="inlineStr"/>
+      <c r="E223" t="n">
+        <v>12304</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4250,13 +4310,15 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>678</v>
       </c>
-      <c r="E224" t="inlineStr"/>
+      <c r="E224" t="n">
+        <v>7393</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4267,13 +4329,15 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>204</v>
       </c>
-      <c r="E225" t="inlineStr"/>
+      <c r="E225" t="n">
+        <v>9409</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4284,7 +4348,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4303,13 +4367,15 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D227" t="n">
         <v>1706</v>
       </c>
-      <c r="E227" t="inlineStr"/>
+      <c r="E227" t="n">
+        <v>32419</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4320,13 +4386,15 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D228" t="n">
         <v>213</v>
       </c>
-      <c r="E228" t="inlineStr"/>
+      <c r="E228" t="n">
+        <v>79603</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4337,7 +4405,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4354,13 +4422,15 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D230" t="n">
         <v>1486</v>
       </c>
-      <c r="E230" t="inlineStr"/>
+      <c r="E230" t="n">
+        <v>38514</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4371,13 +4441,15 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D231" t="n">
         <v>1614</v>
       </c>
-      <c r="E231" t="inlineStr"/>
+      <c r="E231" t="n">
+        <v>42699.5</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4388,7 +4460,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4407,7 +4479,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4426,13 +4498,15 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D234" t="n">
         <v>2501</v>
       </c>
-      <c r="E234" t="inlineStr"/>
+      <c r="E234" t="n">
+        <v>21986</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4443,13 +4517,15 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D235" t="n">
         <v>2687</v>
       </c>
-      <c r="E235" t="inlineStr"/>
+      <c r="E235" t="n">
+        <v>43352</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4460,13 +4536,15 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D236" t="n">
         <v>32</v>
       </c>
-      <c r="E236" t="inlineStr"/>
+      <c r="E236" t="n">
+        <v>63697</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -4477,13 +4555,15 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D237" t="n">
         <v>146</v>
       </c>
-      <c r="E237" t="inlineStr"/>
+      <c r="E237" t="n">
+        <v>28357</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4494,13 +4574,15 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D238" t="n">
         <v>971</v>
       </c>
-      <c r="E238" t="inlineStr"/>
+      <c r="E238" t="n">
+        <v>18612</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4511,7 +4593,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4528,13 +4610,15 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D240" t="n">
         <v>299</v>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="n">
+        <v>44808</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -4545,7 +4629,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -4562,13 +4646,15 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D242" t="n">
         <v>2455</v>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="n">
+        <v>8007</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -4579,13 +4665,15 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D243" t="n">
         <v>84</v>
       </c>
-      <c r="E243" t="inlineStr"/>
+      <c r="E243" t="n">
+        <v>13078</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -4596,13 +4684,15 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D244" t="n">
         <v>280</v>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="n">
+        <v>8261</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4613,13 +4703,15 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D245" t="n">
         <v>100</v>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="n">
+        <v>9750</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4630,7 +4722,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -4649,13 +4741,15 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D247" t="n">
         <v>902</v>
       </c>
-      <c r="E247" t="inlineStr"/>
+      <c r="E247" t="n">
+        <v>31107</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -4666,13 +4760,15 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D248" t="n">
         <v>123</v>
       </c>
-      <c r="E248" t="inlineStr"/>
+      <c r="E248" t="n">
+        <v>78650</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -4683,7 +4779,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4700,13 +4796,15 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D250" t="n">
         <v>1260</v>
       </c>
-      <c r="E250" t="inlineStr"/>
+      <c r="E250" t="n">
+        <v>39585</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -4717,13 +4815,15 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D251" t="n">
         <v>1135</v>
       </c>
-      <c r="E251" t="inlineStr"/>
+      <c r="E251" t="n">
+        <v>39681</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -4734,7 +4834,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4753,7 +4853,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4772,13 +4872,15 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D254" t="n">
         <v>1558</v>
       </c>
-      <c r="E254" t="inlineStr"/>
+      <c r="E254" t="n">
+        <v>23203</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -4789,13 +4891,15 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D255" t="n">
         <v>1847</v>
       </c>
-      <c r="E255" t="inlineStr"/>
+      <c r="E255" t="n">
+        <v>45770</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -4806,13 +4910,15 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D256" t="n">
         <v>18</v>
       </c>
-      <c r="E256" t="inlineStr"/>
+      <c r="E256" t="n">
+        <v>60622</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -4823,13 +4929,15 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D257" t="n">
         <v>130</v>
       </c>
-      <c r="E257" t="inlineStr"/>
+      <c r="E257" t="n">
+        <v>29805</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -4840,13 +4948,15 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D258" t="n">
         <v>535</v>
       </c>
-      <c r="E258" t="inlineStr"/>
+      <c r="E258" t="n">
+        <v>19481.5</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -4857,7 +4967,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4874,13 +4984,15 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D260" t="n">
         <v>234</v>
       </c>
-      <c r="E260" t="inlineStr"/>
+      <c r="E260" t="n">
+        <v>46670</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -4891,7 +5003,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -4908,13 +5020,15 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D262" t="n">
         <v>1041</v>
       </c>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="n">
+        <v>8645</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -4925,13 +5039,15 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D263" t="n">
         <v>39</v>
       </c>
-      <c r="E263" t="inlineStr"/>
+      <c r="E263" t="n">
+        <v>14112</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -4942,13 +5058,15 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D264" t="n">
         <v>292</v>
       </c>
-      <c r="E264" t="inlineStr"/>
+      <c r="E264" t="n">
+        <v>9332.5</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -4959,13 +5077,15 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D265" t="n">
         <v>57</v>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="n">
+        <v>12326</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -4976,7 +5096,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -4995,13 +5115,15 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D267" t="n">
         <v>607</v>
       </c>
-      <c r="E267" t="inlineStr"/>
+      <c r="E267" t="n">
+        <v>36286</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5012,13 +5134,15 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D268" t="n">
         <v>143</v>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="n">
+        <v>81732</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5029,7 +5153,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5046,13 +5170,15 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D270" t="n">
         <v>1383</v>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="n">
+        <v>39049</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5063,13 +5189,15 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D271" t="n">
         <v>1253</v>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="n">
+        <v>47500</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5080,7 +5208,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5099,7 +5227,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5118,13 +5246,15 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D274" t="n">
         <v>841</v>
       </c>
-      <c r="E274" t="inlineStr"/>
+      <c r="E274" t="n">
+        <v>25756</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5135,13 +5265,15 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D275" t="n">
         <v>2106</v>
       </c>
-      <c r="E275" t="inlineStr"/>
+      <c r="E275" t="n">
+        <v>50015</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5152,13 +5284,15 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D276" t="n">
         <v>15</v>
       </c>
-      <c r="E276" t="inlineStr"/>
+      <c r="E276" t="n">
+        <v>65888</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5169,13 +5303,15 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D277" t="n">
         <v>37</v>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="n">
+        <v>33517</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -5186,13 +5322,15 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D278" t="n">
         <v>339</v>
       </c>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="n">
+        <v>21006</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -5203,7 +5341,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -5220,13 +5358,15 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D280" t="n">
         <v>118</v>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="n">
+        <v>49498</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -5237,7 +5377,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -5254,7 +5394,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Accommodation and Food Services</t>
+          <t>accommodation and food services</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -5271,7 +5411,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Administrative and Support Services</t>
+          <t>administrative and support services</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -5288,7 +5428,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Agriculture, Forestry and Fishing</t>
+          <t>agriculture, forestry and fishing</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -5305,7 +5445,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Arts and Recreation Services</t>
+          <t>arts and recreation services</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5322,7 +5462,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -5339,7 +5479,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Education and Training</t>
+          <t>education and training</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5356,7 +5496,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Electricity, Gas, Water and Waste Services</t>
+          <t>electricity, gas, water and waste services</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5373,7 +5513,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Financial and Insurance Services</t>
+          <t>financial and insurance services</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5390,7 +5530,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Health Care and Social Assistance</t>
+          <t>health care and social assistance</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5407,7 +5547,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Information Media and Telecommunications</t>
+          <t>information media and telecommunications</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -5424,7 +5564,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>manufacturing</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5441,7 +5581,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Mining</t>
+          <t>mining</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5458,7 +5598,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Other Services</t>
+          <t>other services</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5475,7 +5615,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Professional, Scientific and Technical Services</t>
+          <t>professional, scientific and technical services</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5492,7 +5632,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Public Administration and Safety</t>
+          <t>public administration and safety</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -5509,7 +5649,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Rental, Hiring and Real Estate Services</t>
+          <t>rental, hiring and real estate services</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5526,7 +5666,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Retail Trade</t>
+          <t>retail trade</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5543,7 +5683,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Transport Postal and Warehousing</t>
+          <t>transport postal and warehousing</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5560,7 +5700,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Wholesale Trade</t>
+          <t>wholesale trade</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -5577,7 +5717,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>not specified</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -5594,12 +5734,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Agriculture, forestry and fishing</t>
+          <t>transport, postal and warehousing</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="n">
-        <v>6906</v>
+        <v>47796</v>
       </c>
     </row>
     <row r="303">
@@ -5611,12 +5751,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Electricity, gas, water and waste services</t>
+          <t>finance and insurance services</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="n">
-        <v>77161</v>
+        <v>40749</v>
       </c>
     </row>
     <row r="304">
@@ -5624,16 +5764,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Wholesale trade</t>
+          <t>transport, postal and warehousing</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="n">
-        <v>43383</v>
+        <v>47631.5</v>
       </c>
     </row>
     <row r="305">
@@ -5641,16 +5781,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Retail trade</t>
+          <t>finance and insurance services</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="n">
-        <v>17950</v>
+        <v>40941</v>
       </c>
     </row>
     <row r="306">
@@ -5658,16 +5798,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Accommodation and food services</t>
+          <t>transport, postal and warehousing</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="n">
-        <v>7293</v>
+        <v>47658</v>
       </c>
     </row>
     <row r="307">
@@ -5675,16 +5815,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Transport, postal and warehousing</t>
+          <t>finance and insurance services</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="n">
-        <v>47796</v>
+        <v>41650</v>
       </c>
     </row>
     <row r="308">
@@ -5692,16 +5832,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Information media and telecommunications</t>
+          <t>transport, postal and warehousing</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="n">
-        <v>37000</v>
+        <v>50140</v>
       </c>
     </row>
     <row r="309">
@@ -5709,16 +5849,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Finance and insurance services</t>
+          <t>finance and insurance services</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="n">
-        <v>40749</v>
+        <v>43663</v>
       </c>
     </row>
     <row r="310">
@@ -5726,16 +5866,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Rental, hiring and real estate services</t>
+          <t>transport, postal and warehousing</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="n">
-        <v>26891.5</v>
+        <v>51330</v>
       </c>
     </row>
     <row r="311">
@@ -5743,1206 +5883,16 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Professional, scientific and technical services</t>
+          <t>finance and insurance services</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
       <c r="E311" t="n">
-        <v>40862</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Administrative and support services</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr"/>
-      <c r="E312" t="n">
-        <v>11453</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Public administration and safety</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr"/>
-      <c r="E313" t="n">
-        <v>62292</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Education and training</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr"/>
-      <c r="E314" t="n">
-        <v>29806</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Health care and social assistance</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr"/>
-      <c r="E315" t="n">
-        <v>37810</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>Arts and recreation services</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="n">
-        <v>8847</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="n">
-        <v>20873</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>Agriculture, forestry and fishing</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr"/>
-      <c r="E318" t="n">
-        <v>7206.5</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Electricity, gas, water and waste services</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
-      <c r="E319" t="n">
-        <v>74537</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Wholesale trade</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
-      <c r="E320" t="n">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Retail trade</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="n">
-        <v>18209</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Accommodation and food services</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="n">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>Transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
-      <c r="E323" t="n">
-        <v>47631.5</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Information media and telecommunications</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="n">
-        <v>39364</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr"/>
-      <c r="E325" t="n">
-        <v>40941</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Rental, hiring and real estate services</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="n">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>Professional, scientific and technical services</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr"/>
-      <c r="E327" t="n">
-        <v>40337</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Administrative and support services</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="n">
-        <v>11411</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Public administration and safety</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="n">
-        <v>57947</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>Education and training</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr"/>
-      <c r="E330" t="n">
-        <v>31565</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Health care and social assistance</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr"/>
-      <c r="E331" t="n">
-        <v>38477</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Arts and recreation services</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr"/>
-      <c r="E332" t="n">
-        <v>9148</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr"/>
-      <c r="E333" t="n">
-        <v>21522</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Agriculture, forestry and fishing</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr"/>
-      <c r="E334" t="n">
-        <v>7393</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Electricity, gas, water and waste services</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr"/>
-      <c r="E335" t="n">
-        <v>79603</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Wholesale trade</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr"/>
-      <c r="E336" t="n">
-        <v>44808</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Retail trade</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr"/>
-      <c r="E337" t="n">
-        <v>18612</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Accommodation and food services</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr"/>
-      <c r="E338" t="n">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr"/>
-      <c r="E339" t="n">
-        <v>47658</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Information media and telecommunications</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="n">
-        <v>42699.5</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="n">
-        <v>41650</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Rental, hiring and real estate services</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
-      <c r="E342" t="n">
-        <v>28357</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Professional, scientific and technical services</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
-      <c r="E343" t="n">
-        <v>43352</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Administrative and support services</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
-      <c r="E344" t="n">
-        <v>12304</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Public administration and safety</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
-      <c r="E345" t="n">
-        <v>63697</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Education and training</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
-      <c r="E346" t="n">
-        <v>32419</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Health care and social assistance</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
-      <c r="E347" t="n">
-        <v>38514</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Arts and recreation services</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
-      <c r="E348" t="n">
-        <v>9409</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr"/>
-      <c r="E349" t="n">
-        <v>21986</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Agriculture, forestry and fishing</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr"/>
-      <c r="E350" t="n">
-        <v>8261</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Electricity, gas, water and waste services</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr"/>
-      <c r="E351" t="n">
-        <v>78650</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>Wholesale trade</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="n">
-        <v>46670</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Retail trade</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr"/>
-      <c r="E353" t="n">
-        <v>19481.5</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>Accommodation and food services</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
-      <c r="E354" t="n">
-        <v>8007</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>Transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
-      <c r="E355" t="n">
-        <v>50140</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>Information media and telecommunications</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
-      <c r="E356" t="n">
-        <v>39681</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>Finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="n">
-        <v>43663</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>Rental, hiring and real estate services</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
-      <c r="E358" t="n">
-        <v>29805</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>Professional, scientific and technical services</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
-      <c r="E359" t="n">
-        <v>45770</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>Administrative and support services</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr"/>
-      <c r="E360" t="n">
-        <v>13078</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>Public administration and safety</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="n">
-        <v>60622</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>Education and training</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
-      <c r="E362" t="n">
-        <v>31107</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>Health care and social assistance</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr"/>
-      <c r="E363" t="n">
-        <v>39585</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>Arts and recreation services</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr"/>
-      <c r="E364" t="n">
-        <v>9750</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
-      <c r="E365" t="n">
-        <v>23203</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>Agriculture, forestry and fishing</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
-      <c r="E366" t="n">
-        <v>9332.5</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>Electricity, gas, water and waste services</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
-      <c r="E367" t="n">
-        <v>81732</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Wholesale trade</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="n">
-        <v>49498</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Retail trade</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
-      <c r="E369" t="n">
-        <v>21006</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>Accommodation and food services</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr"/>
-      <c r="E370" t="n">
-        <v>8645</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>Transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="n">
-        <v>51330</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>Information media and telecommunications</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="n">
-        <v>47500</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>Finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="n">
         <v>45900</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Rental, hiring and real estate services</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="n">
-        <v>33517</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Professional, scientific and technical services</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="n">
-        <v>50015</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>Administrative and support services</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="n">
-        <v>14112</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Public administration and safety</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="n">
-        <v>65888</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Education and training</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="n">
-        <v>36286</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Health care and social assistance</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="n">
-        <v>39049</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>Arts and recreation services</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="n">
-        <v>12326</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="n">
-        <v>25756</v>
       </c>
     </row>
   </sheetData>

--- a/data/all_together.xlsx
+++ b/data/all_together.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -515,7 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -583,7 +583,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -787,7 +787,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -889,7 +889,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -906,7 +906,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -940,7 +940,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -957,7 +957,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -974,7 +974,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -991,7 +991,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D166" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3473,7 +3473,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -3524,15 +3524,13 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D182" t="n">
         <v>4473</v>
       </c>
-      <c r="E182" t="n">
-        <v>7293</v>
-      </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3543,15 +3541,13 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D183" t="n">
         <v>128</v>
       </c>
-      <c r="E183" t="n">
-        <v>11453</v>
-      </c>
+      <c r="E183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3562,15 +3558,13 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>537</v>
       </c>
-      <c r="E184" t="n">
-        <v>6906</v>
-      </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3581,15 +3575,13 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>212</v>
       </c>
-      <c r="E185" t="n">
-        <v>8847</v>
-      </c>
+      <c r="E185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3600,7 +3592,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3619,15 +3611,13 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>1296</v>
       </c>
-      <c r="E187" t="n">
-        <v>29806</v>
-      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3638,15 +3628,13 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D188" t="n">
         <v>297</v>
       </c>
-      <c r="E188" t="n">
-        <v>77161</v>
-      </c>
+      <c r="E188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3657,7 +3645,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3674,15 +3662,13 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D190" t="n">
         <v>1610</v>
       </c>
-      <c r="E190" t="n">
-        <v>37810</v>
-      </c>
+      <c r="E190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3693,15 +3679,13 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D191" t="n">
         <v>1244</v>
       </c>
-      <c r="E191" t="n">
-        <v>37000</v>
-      </c>
+      <c r="E191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3712,7 +3696,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3731,7 +3715,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3750,15 +3734,13 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D194" t="n">
         <v>3509</v>
       </c>
-      <c r="E194" t="n">
-        <v>20873</v>
-      </c>
+      <c r="E194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -3769,15 +3751,13 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D195" t="n">
         <v>2013</v>
       </c>
-      <c r="E195" t="n">
-        <v>40862</v>
-      </c>
+      <c r="E195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -3788,15 +3768,13 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>32</v>
       </c>
-      <c r="E196" t="n">
-        <v>62292</v>
-      </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -3807,15 +3785,13 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D197" t="n">
         <v>217</v>
       </c>
-      <c r="E197" t="n">
-        <v>26891.5</v>
-      </c>
+      <c r="E197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -3826,15 +3802,13 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D198" t="n">
         <v>1503</v>
       </c>
-      <c r="E198" t="n">
-        <v>17950</v>
-      </c>
+      <c r="E198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -3845,7 +3819,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3862,15 +3836,13 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D200" t="n">
         <v>525</v>
       </c>
-      <c r="E200" t="n">
-        <v>43383</v>
-      </c>
+      <c r="E200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -3881,7 +3853,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -3898,15 +3870,13 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D202" t="n">
         <v>2381</v>
       </c>
-      <c r="E202" t="n">
-        <v>7500</v>
-      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -3917,15 +3887,13 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D203" t="n">
         <v>130</v>
       </c>
-      <c r="E203" t="n">
-        <v>11411</v>
-      </c>
+      <c r="E203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -3936,15 +3904,13 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D204" t="n">
         <v>442</v>
       </c>
-      <c r="E204" t="n">
-        <v>7206.5</v>
-      </c>
+      <c r="E204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -3955,15 +3921,13 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D205" t="n">
         <v>169</v>
       </c>
-      <c r="E205" t="n">
-        <v>9148</v>
-      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -3974,7 +3938,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -3993,15 +3957,13 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D207" t="n">
         <v>1114</v>
       </c>
-      <c r="E207" t="n">
-        <v>31565</v>
-      </c>
+      <c r="E207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4012,15 +3974,13 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D208" t="n">
         <v>206</v>
       </c>
-      <c r="E208" t="n">
-        <v>74537</v>
-      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4031,7 +3991,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4048,15 +4008,13 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D210" t="n">
         <v>1318</v>
       </c>
-      <c r="E210" t="n">
-        <v>38477</v>
-      </c>
+      <c r="E210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4067,15 +4025,13 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D211" t="n">
         <v>1294</v>
       </c>
-      <c r="E211" t="n">
-        <v>39364</v>
-      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4086,7 +4042,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4105,7 +4061,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4124,15 +4080,13 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D214" t="n">
         <v>2241</v>
       </c>
-      <c r="E214" t="n">
-        <v>21522</v>
-      </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4143,15 +4097,13 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>2141</v>
       </c>
-      <c r="E215" t="n">
-        <v>40337</v>
-      </c>
+      <c r="E215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4162,15 +4114,13 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D216" t="n">
         <v>45</v>
       </c>
-      <c r="E216" t="n">
-        <v>57947</v>
-      </c>
+      <c r="E216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4181,15 +4131,13 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D217" t="n">
         <v>143</v>
       </c>
-      <c r="E217" t="n">
-        <v>27000</v>
-      </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4200,15 +4148,13 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D218" t="n">
         <v>856</v>
       </c>
-      <c r="E218" t="n">
-        <v>18209</v>
-      </c>
+      <c r="E218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4219,7 +4165,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4236,15 +4182,13 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D220" t="n">
         <v>320</v>
       </c>
-      <c r="E220" t="n">
-        <v>44138</v>
-      </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4255,7 +4199,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4272,15 +4216,13 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D222" t="n">
         <v>3824</v>
       </c>
-      <c r="E222" t="n">
-        <v>7680</v>
-      </c>
+      <c r="E222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4291,15 +4233,13 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D223" t="n">
         <v>184</v>
       </c>
-      <c r="E223" t="n">
-        <v>12304</v>
-      </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4310,15 +4250,13 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>678</v>
       </c>
-      <c r="E224" t="n">
-        <v>7393</v>
-      </c>
+      <c r="E224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4329,15 +4267,13 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D225" t="n">
         <v>204</v>
       </c>
-      <c r="E225" t="n">
-        <v>9409</v>
-      </c>
+      <c r="E225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4348,7 +4284,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4367,15 +4303,13 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D227" t="n">
         <v>1706</v>
       </c>
-      <c r="E227" t="n">
-        <v>32419</v>
-      </c>
+      <c r="E227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4386,15 +4320,13 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D228" t="n">
         <v>213</v>
       </c>
-      <c r="E228" t="n">
-        <v>79603</v>
-      </c>
+      <c r="E228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4405,7 +4337,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4422,15 +4354,13 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D230" t="n">
         <v>1486</v>
       </c>
-      <c r="E230" t="n">
-        <v>38514</v>
-      </c>
+      <c r="E230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4441,15 +4371,13 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D231" t="n">
         <v>1614</v>
       </c>
-      <c r="E231" t="n">
-        <v>42699.5</v>
-      </c>
+      <c r="E231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -4460,7 +4388,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4479,7 +4407,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4498,15 +4426,13 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D234" t="n">
         <v>2501</v>
       </c>
-      <c r="E234" t="n">
-        <v>21986</v>
-      </c>
+      <c r="E234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -4517,15 +4443,13 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D235" t="n">
         <v>2687</v>
       </c>
-      <c r="E235" t="n">
-        <v>43352</v>
-      </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -4536,15 +4460,13 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D236" t="n">
         <v>32</v>
       </c>
-      <c r="E236" t="n">
-        <v>63697</v>
-      </c>
+      <c r="E236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -4555,15 +4477,13 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D237" t="n">
         <v>146</v>
       </c>
-      <c r="E237" t="n">
-        <v>28357</v>
-      </c>
+      <c r="E237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -4574,15 +4494,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D238" t="n">
         <v>971</v>
       </c>
-      <c r="E238" t="n">
-        <v>18612</v>
-      </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -4593,7 +4511,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4610,15 +4528,13 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D240" t="n">
         <v>299</v>
       </c>
-      <c r="E240" t="n">
-        <v>44808</v>
-      </c>
+      <c r="E240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -4629,11 +4545,13 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>5</v>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr"/>
     </row>
@@ -4646,15 +4564,13 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D242" t="n">
         <v>2455</v>
       </c>
-      <c r="E242" t="n">
-        <v>8007</v>
-      </c>
+      <c r="E242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -4665,15 +4581,13 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D243" t="n">
         <v>84</v>
       </c>
-      <c r="E243" t="n">
-        <v>13078</v>
-      </c>
+      <c r="E243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -4684,15 +4598,13 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D244" t="n">
         <v>280</v>
       </c>
-      <c r="E244" t="n">
-        <v>8261</v>
-      </c>
+      <c r="E244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -4703,15 +4615,13 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D245" t="n">
         <v>100</v>
       </c>
-      <c r="E245" t="n">
-        <v>9750</v>
-      </c>
+      <c r="E245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -4722,7 +4632,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -4741,15 +4651,13 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D247" t="n">
         <v>902</v>
       </c>
-      <c r="E247" t="n">
-        <v>31107</v>
-      </c>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -4760,15 +4668,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D248" t="n">
         <v>123</v>
       </c>
-      <c r="E248" t="n">
-        <v>78650</v>
-      </c>
+      <c r="E248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -4779,7 +4685,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4796,15 +4702,13 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D250" t="n">
         <v>1260</v>
       </c>
-      <c r="E250" t="n">
-        <v>39585</v>
-      </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -4815,15 +4719,13 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D251" t="n">
         <v>1135</v>
       </c>
-      <c r="E251" t="n">
-        <v>39681</v>
-      </c>
+      <c r="E251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -4834,7 +4736,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4853,7 +4755,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4872,15 +4774,13 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D254" t="n">
         <v>1558</v>
       </c>
-      <c r="E254" t="n">
-        <v>23203</v>
-      </c>
+      <c r="E254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -4891,15 +4791,13 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D255" t="n">
         <v>1847</v>
       </c>
-      <c r="E255" t="n">
-        <v>45770</v>
-      </c>
+      <c r="E255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -4910,15 +4808,13 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D256" t="n">
         <v>18</v>
       </c>
-      <c r="E256" t="n">
-        <v>60622</v>
-      </c>
+      <c r="E256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -4929,15 +4825,13 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D257" t="n">
         <v>130</v>
       </c>
-      <c r="E257" t="n">
-        <v>29805</v>
-      </c>
+      <c r="E257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -4948,15 +4842,13 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D258" t="n">
         <v>535</v>
       </c>
-      <c r="E258" t="n">
-        <v>19481.5</v>
-      </c>
+      <c r="E258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -4967,7 +4859,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4984,15 +4876,13 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D260" t="n">
         <v>234</v>
       </c>
-      <c r="E260" t="n">
-        <v>46670</v>
-      </c>
+      <c r="E260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5003,7 +4893,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -5020,15 +4910,13 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D262" t="n">
         <v>1041</v>
       </c>
-      <c r="E262" t="n">
-        <v>8645</v>
-      </c>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5039,15 +4927,13 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D263" t="n">
         <v>39</v>
       </c>
-      <c r="E263" t="n">
-        <v>14112</v>
-      </c>
+      <c r="E263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5058,15 +4944,13 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D264" t="n">
         <v>292</v>
       </c>
-      <c r="E264" t="n">
-        <v>9332.5</v>
-      </c>
+      <c r="E264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5077,15 +4961,13 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D265" t="n">
         <v>57</v>
       </c>
-      <c r="E265" t="n">
-        <v>12326</v>
-      </c>
+      <c r="E265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5096,7 +4978,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5115,15 +4997,13 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D267" t="n">
         <v>607</v>
       </c>
-      <c r="E267" t="n">
-        <v>36286</v>
-      </c>
+      <c r="E267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5134,15 +5014,13 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D268" t="n">
         <v>143</v>
       </c>
-      <c r="E268" t="n">
-        <v>81732</v>
-      </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5153,7 +5031,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5170,15 +5048,13 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D270" t="n">
         <v>1383</v>
       </c>
-      <c r="E270" t="n">
-        <v>39049</v>
-      </c>
+      <c r="E270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5189,15 +5065,13 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D271" t="n">
         <v>1253</v>
       </c>
-      <c r="E271" t="n">
-        <v>47500</v>
-      </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5208,7 +5082,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5227,7 +5101,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5246,15 +5120,13 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D274" t="n">
         <v>841</v>
       </c>
-      <c r="E274" t="n">
-        <v>25756</v>
-      </c>
+      <c r="E274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5265,15 +5137,13 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D275" t="n">
         <v>2106</v>
       </c>
-      <c r="E275" t="n">
-        <v>50015</v>
-      </c>
+      <c r="E275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5284,15 +5154,13 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D276" t="n">
         <v>15</v>
       </c>
-      <c r="E276" t="n">
-        <v>65888</v>
-      </c>
+      <c r="E276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5303,15 +5171,13 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D277" t="n">
         <v>37</v>
       </c>
-      <c r="E277" t="n">
-        <v>33517</v>
-      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -5322,15 +5188,13 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D278" t="n">
         <v>339</v>
       </c>
-      <c r="E278" t="n">
-        <v>21006</v>
-      </c>
+      <c r="E278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -5341,7 +5205,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -5358,15 +5222,13 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D280" t="n">
         <v>118</v>
       </c>
-      <c r="E280" t="n">
-        <v>49498</v>
-      </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -5377,11 +5239,13 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>5</v>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
       </c>
       <c r="E281" t="inlineStr"/>
     </row>
@@ -5394,7 +5258,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>accommodation and food services</t>
+          <t>Accommodation and Food Services</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -5411,7 +5275,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>administrative and support services</t>
+          <t>Administrative and Support Services</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -5428,7 +5292,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>agriculture, forestry and fishing</t>
+          <t>Agriculture, Forestry and Fishing</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -5445,7 +5309,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>arts and recreation services</t>
+          <t>Arts and Recreation Services</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5462,7 +5326,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -5479,7 +5343,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>education and training</t>
+          <t>Education and Training</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5496,7 +5360,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>electricity, gas, water and waste services</t>
+          <t>Electricity, Gas, Water and Waste Services</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5513,7 +5377,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>financial and insurance services</t>
+          <t>Financial and Insurance Services</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5530,7 +5394,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>health care and social assistance</t>
+          <t>Health Care and Social Assistance</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5547,7 +5411,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>information media and telecommunications</t>
+          <t>Information Media and Telecommunications</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -5564,7 +5428,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>manufacturing</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5581,7 +5445,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>mining</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5598,7 +5462,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>other services</t>
+          <t>Other Services</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5615,7 +5479,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>professional, scientific and technical services</t>
+          <t>Professional, Scientific and Technical Services</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5632,7 +5496,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>public administration and safety</t>
+          <t>Public Administration and Safety</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -5649,7 +5513,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>rental, hiring and real estate services</t>
+          <t>Rental, Hiring and Real Estate Services</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5666,7 +5530,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>retail trade</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5683,7 +5547,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>transport postal and warehousing</t>
+          <t>Transport Postal and Warehousing</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5700,7 +5564,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>wholesale trade</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -5717,183 +5581,15 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="D301" t="n">
-        <v>5</v>
+          <t>Not Specified</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
       </c>
       <c r="E301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr"/>
-      <c r="E302" t="n">
-        <v>47796</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
-      <c r="E303" t="n">
-        <v>40749</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr"/>
-      <c r="E304" t="n">
-        <v>47631.5</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr"/>
-      <c r="E305" t="n">
-        <v>40941</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="n">
-        <v>47658</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr"/>
-      <c r="E307" t="n">
-        <v>41650</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="n">
-        <v>50140</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr"/>
-      <c r="E309" t="n">
-        <v>43663</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>transport, postal and warehousing</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="n">
-        <v>51330</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>finance and insurance services</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr"/>
-      <c r="E311" t="n">
-        <v>45900</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
